--- a/biology/Botanique/Jardins_du_Mirail/Jardins_du_Mirail.xlsx
+++ b/biology/Botanique/Jardins_du_Mirail/Jardins_du_Mirail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins du Mirail sont aménagés autour du château du même nom à Crannes-en-Champagne, dans le département de la Sarthe et la région Pays de la Loire. Cette propriété privée est l'un des sept espaces verts du département classés Jardin remarquable.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins se trouvent au nord du village de Crannes-en-Champagne, dans le département de la Sarthe.
 </t>
@@ -543,10 +557,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château du Mirail est édifié en 1520, à flanc de coteau, à proximité du bourg de Crannes. Vendu comme bien national à la Révolution, il est abandonné pendant près de 40 ans au milieu du XXe siècle. En 1987, l'artiste-peintre Thibaut de Reimpré en fait l'acquisition. Avec son épouse Isabelle, il y aménage plusieurs jardins. Une première terrasse est créée à proximité du logis[1].
-Les jardins du Mirail sont classés au titre de Jardin remarquable[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château du Mirail est édifié en 1520, à flanc de coteau, à proximité du bourg de Crannes. Vendu comme bien national à la Révolution, il est abandonné pendant près de 40 ans au milieu du XXe siècle. En 1987, l'artiste-peintre Thibaut de Reimpré en fait l'acquisition. Avec son épouse Isabelle, il y aménage plusieurs jardins. Une première terrasse est créée à proximité du logis.
+Les jardins du Mirail sont classés au titre de Jardin remarquable.
 </t>
         </is>
       </c>
